--- a/src/test/resources/testdatas/ParaData.xlsx
+++ b/src/test/resources/testdatas/ParaData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\SourceCodeManagement\Projects\ParaBankBankSite-Automation-Tests\src\test\resources\testdatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\SourceCodeManagement\Projects\ParaBankSite-AutomationTests-RestAssure\ParaBankSite-AutomationTests-RestAssure\src\test\resources\testdatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741BA5C-E586-4F3B-9397-4C49E695C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF84C633-FFF0-4894-8E35-0C0D149085A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="5370" windowWidth="20970" windowHeight="11130" xr2:uid="{21365A5F-34D9-4102-9BEE-42D2619AB207}"/>
+    <workbookView xWindow="14100" yWindow="5265" windowWidth="14895" windowHeight="11130" activeTab="1" xr2:uid="{21365A5F-34D9-4102-9BEE-42D2619AB207}"/>
   </bookViews>
   <sheets>
-    <sheet name="URL" sheetId="2" r:id="rId1"/>
+    <sheet name="Uri" sheetId="2" r:id="rId1"/>
     <sheet name="Register" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFADF19F-C16F-4425-9199-37A8E0212133}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632A532D-FE69-4FDF-A9D1-34302D2703BD}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
